--- a/biology/Botanique/Oxalis_pes-caprae/Oxalis_pes-caprae.xlsx
+++ b/biology/Botanique/Oxalis_pes-caprae/Oxalis_pes-caprae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Oxalis des Bermudes, Oxalis pes-caprae, encore appelé Oxalis pied de chèvre est une espèce de plantes herbacées vivaces du genre Oxalis de la famille des Oxalidacées. Originaire d'Afrique du Sud, elle s'est dispersée dans toute l'Europe méditerranéenne, devenant envahissante[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Oxalis des Bermudes, Oxalis pes-caprae, encore appelé Oxalis pied de chèvre est une espèce de plantes herbacées vivaces du genre Oxalis de la famille des Oxalidacées. Originaire d'Afrique du Sud, elle s'est dispersée dans toute l'Europe méditerranéenne, devenant envahissante
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète pes-caprae, « pied de chèvre », fait référence à la forme des feuilles[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète pes-caprae, « pied de chèvre », fait référence à la forme des feuilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Oxalis cernua Thunberg[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oxalis cernua Thunberg.</t>
         </is>
       </c>
     </row>
@@ -572,7 +588,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles
 Les feuilles sont formées de trois folioles en forme de cœur, avec des taches brunes.
@@ -612,11 +630,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 février 2019)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 février 2019) :
 variété Oxalis pes-caprae var. sericea
-Selon Tropicos                                           (17 février 2019)[8] :
+Selon Tropicos                                           (17 février 2019) :
 variété Oxalis pes-caprae var. pes-caprae
 variété Oxalis pes-caprae var. sericea T.M. Salter</t>
         </is>
